--- a/08-agosto/6-portal-cliente/orainde/ORAINDE.xlsx
+++ b/08-agosto/6-portal-cliente/orainde/ORAINDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\orainde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\orainde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08262EE3-EA46-4179-97D6-E16D3C684F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF2ECE-CB67-47BD-BE00-C2D4EF2BF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="1170" windowWidth="23190" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>GALAÑ ALDANA</t>
   </si>
   <si>
-    <t>JULIO 2025</t>
+    <t>AGOSTO 2025</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8">
-        <v>580391.86</v>
+        <v>586138.19999999995</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="F5" s="8">
         <f>+B5+C5</f>
-        <v>580391.86</v>
+        <v>586138.19999999995</v>
       </c>
       <c r="G5" s="8">
         <f>+D5+E5</f>
@@ -606,11 +606,11 @@
       </c>
       <c r="H5" s="8">
         <f>+B5+C5+D5+E5</f>
-        <v>602275.17999999993</v>
+        <v>608021.5199999999</v>
       </c>
       <c r="I5" s="8">
         <f>+H5*2</f>
-        <v>1204550.3599999999</v>
+        <v>1216043.0399999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
@@ -618,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8">
-        <v>574645.41</v>
+        <v>580334.91</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" s="8">
         <f>+B6+C6</f>
-        <v>574645.41</v>
+        <v>580334.91</v>
       </c>
       <c r="G6" s="8">
         <f>+D6+E6</f>
@@ -639,18 +639,18 @@
       </c>
       <c r="H6" s="8">
         <f>+B6+C6+D6+E6</f>
-        <v>596311.41</v>
+        <v>602000.91</v>
       </c>
       <c r="I6" s="8">
         <f>+H6*2</f>
-        <v>1192622.82</v>
+        <v>1204001.82</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <f>SUM(B5:B6)</f>
-        <v>1155037.27</v>
+        <v>1166473.1099999999</v>
       </c>
       <c r="C7" s="10">
         <f>SUM(C5:C6)</f>
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" s="10">
         <f>SUM(F5:F6)</f>
-        <v>1155037.27</v>
+        <v>1166473.1099999999</v>
       </c>
       <c r="G7" s="8">
         <f>+D7+E7</f>
@@ -674,11 +674,11 @@
       </c>
       <c r="H7" s="10">
         <f>SUM(H5:H6)</f>
-        <v>1198586.5899999999</v>
+        <v>1210022.43</v>
       </c>
       <c r="I7" s="10">
         <f>SUM(I5:I6)</f>
-        <v>2397173.1799999997</v>
+        <v>2420044.86</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
